--- a/marathon3/data/CreateAccount.xlsx
+++ b/marathon3/data/CreateAccount.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestLeaf\Selenium\src\main\java\marathon3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestLeaf\Selenium\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F313C-3FC2-40AE-A6CD-0E5395D4572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B060365-3C3E-4E00-930C-D6BCAF252BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formdata" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="deldata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>accountName</t>
   </si>
@@ -37,7 +37,28 @@
     <t>madhura</t>
   </si>
   <si>
-    <t>public</t>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>bhuvanesh</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>anburaj</t>
+  </si>
+  <si>
+    <t>Muthu</t>
+  </si>
+  <si>
+    <t>seenivasan</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Subsidiary</t>
   </si>
 </sst>
 </file>
@@ -67,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,11 +111,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -103,6 +135,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,12 +448,36 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -427,12 +486,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DA88C5-9714-4D7C-8EDE-9F85B29A69E4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>